--- a/assets/findings/2024-02-01-findings.xlsx
+++ b/assets/findings/2024-02-01-findings.xlsx
@@ -644,8 +644,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -677,8 +679,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -743,8 +747,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -776,8 +782,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>1</v>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -842,8 +850,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -875,8 +885,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>1</v>
+      <c r="U4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -941,8 +953,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -974,8 +988,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>1</v>
+      <c r="U5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -1040,8 +1056,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -1073,8 +1091,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>1</v>
+      <c r="U6" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -1139,8 +1159,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1172,8 +1194,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>1</v>
+      <c r="U7" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1238,8 +1262,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1271,8 +1297,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>1</v>
+      <c r="U8" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1337,8 +1365,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1370,8 +1400,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>1</v>
+      <c r="U9" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1436,8 +1468,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1469,8 +1503,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>1</v>
+      <c r="U10" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1535,8 +1571,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1568,8 +1606,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>1</v>
+      <c r="U11" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1634,8 +1674,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1667,8 +1709,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>1</v>
+      <c r="U12" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -1733,8 +1777,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1766,8 +1812,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>1</v>
+      <c r="U13" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -1832,8 +1880,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1865,8 +1915,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>0</v>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -1931,8 +1983,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>0</v>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1964,8 +2018,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>0</v>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -2030,8 +2086,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M16" t="b">
-        <v>0</v>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -2063,8 +2121,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U16" t="b">
-        <v>0</v>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -2316,8 +2376,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -2349,8 +2411,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -2574,8 +2638,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -2607,8 +2673,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -2673,8 +2741,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -2706,8 +2776,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>1</v>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -2772,8 +2844,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -2805,8 +2879,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>1</v>
+      <c r="U4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -2871,8 +2947,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -2904,8 +2982,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -2970,8 +3050,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -3003,8 +3085,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -3236,8 +3320,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -3269,8 +3355,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -3335,8 +3423,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -3368,8 +3458,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -3434,8 +3526,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -3467,8 +3561,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>1</v>
+      <c r="U4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -3533,8 +3629,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -3566,8 +3664,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>1</v>
+      <c r="U5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -3632,8 +3732,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -3665,8 +3767,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>1</v>
+      <c r="U6" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -3731,8 +3835,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -3764,8 +3870,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>1</v>
+      <c r="U7" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -3830,8 +3938,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -3863,8 +3973,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>1</v>
+      <c r="U8" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -3929,8 +4041,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -3962,8 +4076,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>1</v>
+      <c r="U9" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -4028,8 +4144,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -4061,8 +4179,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>1</v>
+      <c r="U10" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -4127,8 +4247,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -4160,8 +4282,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>1</v>
+      <c r="U11" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -4226,8 +4350,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -4259,8 +4385,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>1</v>
+      <c r="U12" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -4325,8 +4453,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -4358,8 +4488,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>1</v>
+      <c r="U13" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -4424,8 +4556,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -4457,8 +4591,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>1</v>
+      <c r="U14" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -4523,8 +4659,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>0</v>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -4556,8 +4694,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>1</v>
+      <c r="U15" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -4622,8 +4762,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M16" t="b">
-        <v>0</v>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -4655,8 +4797,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U16" t="b">
-        <v>1</v>
+      <c r="U16" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -4721,8 +4865,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M17" t="b">
-        <v>0</v>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -4754,8 +4900,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U17" t="b">
-        <v>1</v>
+      <c r="U17" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -4820,8 +4968,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M18" t="b">
-        <v>0</v>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -4853,8 +5003,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U18" t="b">
-        <v>1</v>
+      <c r="U18" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -4919,8 +5071,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M19" t="b">
-        <v>0</v>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -4952,8 +5106,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U19" t="b">
-        <v>1</v>
+      <c r="U19" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -5018,8 +5174,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M20" t="b">
-        <v>0</v>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -5051,8 +5209,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U20" t="b">
-        <v>1</v>
+      <c r="U20" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -5117,8 +5277,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M21" t="b">
-        <v>0</v>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -5150,8 +5312,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U21" t="b">
-        <v>1</v>
+      <c r="U21" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -5216,8 +5380,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M22" t="b">
-        <v>0</v>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -5249,8 +5415,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U22" t="b">
-        <v>1</v>
+      <c r="U22" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -5315,8 +5483,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M23" t="b">
-        <v>0</v>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -5348,8 +5518,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U23" t="b">
-        <v>1</v>
+      <c r="U23" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -5414,8 +5586,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M24" t="b">
-        <v>0</v>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -5447,8 +5621,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U24" t="b">
-        <v>1</v>
+      <c r="U24" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -5513,8 +5689,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M25" t="b">
-        <v>0</v>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -5546,8 +5724,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U25" t="b">
-        <v>1</v>
+      <c r="U25" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -5612,8 +5792,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M26" t="b">
-        <v>0</v>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -5645,8 +5827,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U26" t="b">
-        <v>1</v>
+      <c r="U26" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -5711,8 +5895,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M27" t="b">
-        <v>0</v>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -5744,8 +5930,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U27" t="b">
-        <v>0</v>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -5810,8 +5998,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M28" t="b">
-        <v>0</v>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -5843,8 +6033,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U28" t="b">
-        <v>0</v>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -5909,8 +6101,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M29" t="b">
-        <v>0</v>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -5942,8 +6136,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U29" t="b">
-        <v>0</v>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -6008,8 +6204,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M30" t="b">
-        <v>0</v>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -6041,8 +6239,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U30" t="b">
-        <v>0</v>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -6107,8 +6307,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M31" t="b">
-        <v>0</v>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -6140,8 +6342,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U31" t="b">
-        <v>0</v>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -6206,8 +6410,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M32" t="b">
-        <v>0</v>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -6239,8 +6445,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U32" t="b">
-        <v>0</v>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -6305,8 +6513,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M33" t="b">
-        <v>0</v>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -6338,8 +6548,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U33" t="b">
-        <v>0</v>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -6404,8 +6616,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M34" t="b">
-        <v>0</v>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -6437,8 +6651,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U34" t="b">
-        <v>0</v>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -6503,8 +6719,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M35" t="b">
-        <v>0</v>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -6536,8 +6754,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U35" t="b">
-        <v>0</v>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -6602,8 +6822,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M36" t="b">
-        <v>0</v>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -6635,8 +6857,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U36" t="b">
-        <v>0</v>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
@@ -6701,8 +6925,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M37" t="b">
-        <v>0</v>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -6734,8 +6960,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U37" t="b">
-        <v>0</v>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
@@ -6800,8 +7028,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M38" t="b">
-        <v>0</v>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O38" s="1" t="inlineStr">
         <is>
@@ -6833,8 +7063,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U38" t="b">
-        <v>0</v>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
@@ -6899,8 +7131,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M39" t="b">
-        <v>0</v>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O39" s="1" t="inlineStr">
         <is>
@@ -6932,8 +7166,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U39" t="b">
-        <v>0</v>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
@@ -6998,8 +7234,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M40" t="b">
-        <v>0</v>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O40" s="1" t="inlineStr">
         <is>
@@ -7031,8 +7269,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U40" t="b">
-        <v>0</v>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
@@ -7097,8 +7337,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M41" t="b">
-        <v>0</v>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O41" s="1" t="inlineStr">
         <is>
@@ -7130,8 +7372,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U41" t="b">
-        <v>0</v>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
@@ -7196,8 +7440,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M42" t="b">
-        <v>0</v>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -7229,8 +7475,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U42" t="b">
-        <v>1</v>
+      <c r="U42" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
@@ -7295,8 +7543,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M43" t="b">
-        <v>0</v>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -7328,8 +7578,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U43" t="b">
-        <v>1</v>
+      <c r="U43" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
@@ -7394,8 +7646,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M44" t="b">
-        <v>0</v>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -7427,8 +7681,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U44" t="b">
-        <v>1</v>
+      <c r="U44" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
@@ -7493,8 +7749,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M45" t="b">
-        <v>0</v>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -7526,8 +7784,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U45" t="b">
-        <v>1</v>
+      <c r="U45" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
@@ -7592,8 +7852,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M46" t="b">
-        <v>0</v>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -7625,8 +7887,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U46" t="b">
-        <v>0</v>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
@@ -7691,8 +7955,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M47" t="b">
-        <v>0</v>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -7724,8 +7990,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U47" t="b">
-        <v>1</v>
+      <c r="U47" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
@@ -7790,8 +8058,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M48" t="b">
-        <v>0</v>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -7823,8 +8093,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U48" t="b">
-        <v>1</v>
+      <c r="U48" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
@@ -7889,8 +8161,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M49" t="b">
-        <v>0</v>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -7922,8 +8196,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U49" t="b">
-        <v>1</v>
+      <c r="U49" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
@@ -7988,8 +8264,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M50" t="b">
-        <v>0</v>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -8021,8 +8299,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U50" t="b">
-        <v>0</v>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
@@ -8087,8 +8367,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M51" t="b">
-        <v>0</v>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -8120,8 +8402,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U51" t="b">
-        <v>0</v>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
@@ -8186,8 +8470,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M52" t="b">
-        <v>0</v>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -8219,8 +8505,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U52" t="b">
-        <v>0</v>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
@@ -8285,8 +8573,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M53" t="b">
-        <v>0</v>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -8318,8 +8608,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U53" t="b">
-        <v>0</v>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
@@ -8384,8 +8676,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M54" t="b">
-        <v>0</v>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -8417,8 +8711,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U54" t="b">
-        <v>0</v>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
@@ -8483,8 +8779,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M55" t="b">
-        <v>0</v>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -8516,8 +8814,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U55" t="b">
-        <v>0</v>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
@@ -8582,8 +8882,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M56" t="b">
-        <v>0</v>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -8615,8 +8917,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U56" t="b">
-        <v>0</v>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
@@ -8681,8 +8985,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M57" t="b">
-        <v>0</v>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -8714,8 +9020,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U57" t="b">
-        <v>0</v>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
@@ -8780,8 +9088,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M58" t="b">
-        <v>0</v>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -8813,8 +9123,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U58" t="b">
-        <v>0</v>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
@@ -8879,8 +9191,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M59" t="b">
-        <v>0</v>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -8912,8 +9226,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U59" t="b">
-        <v>0</v>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
@@ -8978,8 +9294,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M60" t="b">
-        <v>0</v>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -9011,8 +9329,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U60" t="b">
-        <v>0</v>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
@@ -9077,8 +9397,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M61" t="b">
-        <v>0</v>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -9110,8 +9432,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U61" t="b">
-        <v>0</v>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
@@ -9176,8 +9500,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M62" t="b">
-        <v>0</v>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -9209,8 +9535,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U62" t="b">
-        <v>0</v>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
@@ -9275,8 +9603,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M63" t="b">
-        <v>0</v>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -9308,8 +9638,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U63" t="b">
-        <v>0</v>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
@@ -9374,8 +9706,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M64" t="b">
-        <v>0</v>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -9407,8 +9741,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U64" t="b">
-        <v>0</v>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
@@ -9473,8 +9809,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M65" t="b">
-        <v>0</v>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -9506,8 +9844,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U65" t="b">
-        <v>0</v>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
@@ -9572,8 +9912,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M66" t="b">
-        <v>0</v>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -9605,8 +9947,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U66" t="b">
-        <v>0</v>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
@@ -9671,8 +10015,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M67" t="b">
-        <v>0</v>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -9704,8 +10050,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U67" t="b">
-        <v>0</v>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
@@ -9770,8 +10118,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M68" t="b">
-        <v>0</v>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -9803,8 +10153,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U68" t="b">
-        <v>0</v>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
@@ -10160,8 +10512,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -10193,8 +10547,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -10259,8 +10615,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -10292,8 +10650,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>1</v>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -10358,8 +10718,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" s="1" t="inlineStr">
         <is>
@@ -10391,8 +10753,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -10457,8 +10821,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -10490,8 +10856,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -10556,8 +10924,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -10589,8 +10959,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -10655,8 +11027,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -10688,8 +11062,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -10754,8 +11130,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -10787,8 +11165,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -10853,8 +11233,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -10886,8 +11268,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -10952,8 +11336,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -10985,8 +11371,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>0</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -11051,8 +11439,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -11084,8 +11474,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>0</v>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -11150,8 +11542,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -11183,8 +11577,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>0</v>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -11249,8 +11645,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -11282,8 +11680,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>0</v>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -11348,8 +11748,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -11381,8 +11783,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>0</v>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -11447,8 +11851,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>0</v>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -11480,8 +11886,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>0</v>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -11546,8 +11954,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M16" t="b">
-        <v>0</v>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -11579,8 +11989,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U16" t="b">
-        <v>0</v>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -11645,8 +12057,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M17" t="b">
-        <v>0</v>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -11678,8 +12092,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U17" t="b">
-        <v>1</v>
+      <c r="U17" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -11744,8 +12160,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M18" t="b">
-        <v>0</v>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -11777,8 +12195,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U18" t="b">
-        <v>0</v>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -11843,8 +12263,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M19" t="b">
-        <v>0</v>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -11876,8 +12298,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U19" t="b">
-        <v>0</v>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -11942,8 +12366,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M20" t="b">
-        <v>0</v>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -11975,8 +12401,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U20" t="b">
-        <v>1</v>
+      <c r="U20" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -12041,8 +12469,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M21" t="b">
-        <v>0</v>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -12074,8 +12504,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U21" t="b">
-        <v>1</v>
+      <c r="U21" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -12140,8 +12572,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M22" t="b">
-        <v>0</v>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -12173,8 +12607,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U22" t="b">
-        <v>1</v>
+      <c r="U22" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -12239,8 +12675,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M23" t="b">
-        <v>0</v>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -12272,8 +12710,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U23" t="b">
-        <v>1</v>
+      <c r="U23" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -12338,8 +12778,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M24" t="b">
-        <v>0</v>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -12371,8 +12813,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U24" t="b">
-        <v>0</v>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -12437,8 +12881,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M25" t="b">
-        <v>0</v>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -12470,8 +12916,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U25" t="b">
-        <v>0</v>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -12741,8 +13189,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -12774,8 +13224,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -12840,8 +13292,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -12873,8 +13327,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -13100,8 +13556,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -13133,8 +13591,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -13358,8 +13818,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -13391,8 +13853,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -13457,8 +13921,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -13490,8 +13956,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -13556,8 +14024,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -13589,8 +14059,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -13655,8 +14127,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -13688,8 +14162,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -13919,8 +14395,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -13952,8 +14430,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -14018,8 +14498,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -14051,8 +14533,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>1</v>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -14117,8 +14601,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -14150,8 +14636,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>1</v>
+      <c r="U4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -14216,8 +14704,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -14249,8 +14739,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>1</v>
+      <c r="U5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -14315,8 +14807,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -14348,8 +14842,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>1</v>
+      <c r="U6" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -14414,8 +14910,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -14447,8 +14945,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>1</v>
+      <c r="U7" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -14513,8 +15013,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -14546,8 +15048,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>1</v>
+      <c r="U8" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -14612,8 +15116,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -14645,8 +15151,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>1</v>
+      <c r="U9" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -14711,8 +15219,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -14744,8 +15254,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>1</v>
+      <c r="U10" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -14810,8 +15322,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -14843,8 +15357,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>1</v>
+      <c r="U11" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -14909,8 +15425,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -14942,8 +15460,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>0</v>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -15187,8 +15707,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" s="1" t="inlineStr">
         <is>
@@ -15220,8 +15742,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -15286,8 +15810,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" s="1" t="inlineStr">
         <is>
@@ -15319,8 +15845,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -15385,8 +15913,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -15418,8 +15948,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -15484,8 +16016,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" s="1" t="inlineStr">
         <is>
@@ -15517,8 +16051,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -15583,8 +16119,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" s="1" t="inlineStr">
         <is>
@@ -15616,8 +16154,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -15682,8 +16222,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" s="1" t="inlineStr">
         <is>
@@ -15715,8 +16257,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -15781,8 +16325,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" s="1" t="inlineStr">
         <is>
@@ -15814,8 +16360,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -15880,8 +16428,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" s="1" t="inlineStr">
         <is>
@@ -15913,8 +16463,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -15979,8 +16531,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -16012,8 +16566,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>1</v>
+      <c r="U10" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -16078,8 +16634,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -16111,8 +16669,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>1</v>
+      <c r="U11" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -16177,8 +16737,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -16210,8 +16772,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>1</v>
+      <c r="U12" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -16276,8 +16840,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" s="1" t="inlineStr">
         <is>
@@ -16309,8 +16875,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>1</v>
+      <c r="U13" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -16375,8 +16943,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -16408,8 +16978,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>0</v>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -16474,8 +17046,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>0</v>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -16507,8 +17081,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>1</v>
+      <c r="U15" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -16758,8 +17334,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -16791,8 +17369,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -17016,8 +17596,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -17049,8 +17631,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -17115,8 +17699,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -17148,8 +17734,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>1</v>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -17375,8 +17963,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>1</v>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N2" t="n">
         <v>5759</v>
@@ -17411,8 +18001,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -17477,8 +18069,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -17510,8 +18104,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>1</v>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -17576,8 +18172,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -17609,8 +18207,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>1</v>
+      <c r="U4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -17675,8 +18275,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -17708,8 +18310,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>1</v>
+      <c r="U5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -17774,8 +18378,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -17807,8 +18413,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -18040,8 +18648,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -18073,8 +18683,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -18298,8 +18910,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -18331,8 +18945,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -18397,8 +19013,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -18430,8 +19048,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -18496,8 +19116,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -18529,8 +19151,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -18595,8 +19219,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -18628,8 +19254,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -18859,8 +19487,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -18892,8 +19522,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -18958,8 +19590,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -18991,8 +19625,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -19057,8 +19693,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -19090,8 +19728,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>1</v>
+      <c r="U4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -19156,8 +19796,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -19189,8 +19831,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>1</v>
+      <c r="U5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -19255,8 +19899,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -19288,8 +19934,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>1</v>
+      <c r="U6" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -19354,8 +20002,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -19387,8 +20037,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>1</v>
+      <c r="U7" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -19453,8 +20105,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -19486,8 +20140,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>1</v>
+      <c r="U8" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -19552,8 +20208,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -19585,8 +20243,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>1</v>
+      <c r="U9" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -19651,8 +20311,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -19684,8 +20346,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>1</v>
+      <c r="U10" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -19750,8 +20414,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -19783,8 +20449,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>1</v>
+      <c r="U11" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -19849,8 +20517,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -19882,8 +20552,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>1</v>
+      <c r="U12" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -19948,8 +20620,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -19981,8 +20655,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>1</v>
+      <c r="U13" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -20047,8 +20723,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -20080,8 +20758,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>1</v>
+      <c r="U14" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -20146,8 +20826,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>0</v>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -20179,8 +20861,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>1</v>
+      <c r="U15" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -20245,8 +20929,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M16" t="b">
-        <v>0</v>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -20278,8 +20964,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U16" t="b">
-        <v>1</v>
+      <c r="U16" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -20344,8 +21032,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M17" t="b">
-        <v>0</v>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -20377,8 +21067,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U17" t="b">
-        <v>1</v>
+      <c r="U17" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -20443,8 +21135,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M18" t="b">
-        <v>0</v>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -20476,8 +21170,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U18" t="b">
-        <v>1</v>
+      <c r="U18" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -20542,8 +21238,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M19" t="b">
-        <v>0</v>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -20575,8 +21273,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U19" t="b">
-        <v>1</v>
+      <c r="U19" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -20641,8 +21341,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M20" t="b">
-        <v>0</v>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -20674,8 +21376,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U20" t="b">
-        <v>1</v>
+      <c r="U20" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -20740,8 +21444,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M21" t="b">
-        <v>0</v>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -20773,8 +21479,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U21" t="b">
-        <v>1</v>
+      <c r="U21" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -20839,8 +21547,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M22" t="b">
-        <v>0</v>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -20872,8 +21582,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U22" t="b">
-        <v>1</v>
+      <c r="U22" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -20938,8 +21650,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M23" t="b">
-        <v>0</v>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -20971,8 +21685,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U23" t="b">
-        <v>1</v>
+      <c r="U23" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -21037,8 +21753,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M24" t="b">
-        <v>0</v>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -21070,8 +21788,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U24" t="b">
-        <v>1</v>
+      <c r="U24" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -21136,8 +21856,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M25" t="b">
-        <v>0</v>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -21169,8 +21891,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U25" t="b">
-        <v>1</v>
+      <c r="U25" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -21235,8 +21959,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M26" t="b">
-        <v>0</v>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -21268,8 +21994,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U26" t="b">
-        <v>1</v>
+      <c r="U26" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -21334,8 +22062,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M27" t="b">
-        <v>0</v>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -21367,8 +22097,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U27" t="b">
-        <v>1</v>
+      <c r="U27" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -21433,8 +22165,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M28" t="b">
-        <v>0</v>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -21466,8 +22200,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U28" t="b">
-        <v>1</v>
+      <c r="U28" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -21532,8 +22268,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M29" t="b">
-        <v>0</v>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -21565,8 +22303,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U29" t="b">
-        <v>1</v>
+      <c r="U29" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -21631,8 +22371,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M30" t="b">
-        <v>0</v>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -21664,8 +22406,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U30" t="b">
-        <v>1</v>
+      <c r="U30" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -21730,8 +22474,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M31" t="b">
-        <v>0</v>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -21763,8 +22509,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U31" t="b">
-        <v>1</v>
+      <c r="U31" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -21829,8 +22577,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M32" t="b">
-        <v>0</v>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -21862,8 +22612,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U32" t="b">
-        <v>1</v>
+      <c r="U32" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -21928,8 +22680,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M33" t="b">
-        <v>0</v>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -21961,8 +22715,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U33" t="b">
-        <v>1</v>
+      <c r="U33" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -22027,8 +22783,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M34" t="b">
-        <v>0</v>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -22060,8 +22818,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U34" t="b">
-        <v>1</v>
+      <c r="U34" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -22126,8 +22886,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M35" t="b">
-        <v>0</v>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -22159,8 +22921,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U35" t="b">
-        <v>1</v>
+      <c r="U35" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -22225,8 +22989,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M36" t="b">
-        <v>0</v>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -22258,8 +23024,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U36" t="b">
-        <v>1</v>
+      <c r="U36" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
@@ -22324,8 +23092,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M37" t="b">
-        <v>0</v>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -22357,8 +23127,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U37" t="b">
-        <v>1</v>
+      <c r="U37" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
@@ -22423,8 +23195,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M38" t="b">
-        <v>0</v>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -22456,8 +23230,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U38" t="b">
-        <v>1</v>
+      <c r="U38" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
@@ -22522,8 +23298,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M39" t="b">
-        <v>0</v>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -22555,8 +23333,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U39" t="b">
-        <v>1</v>
+      <c r="U39" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
@@ -22621,8 +23401,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M40" t="b">
-        <v>0</v>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -22654,8 +23436,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U40" t="b">
-        <v>1</v>
+      <c r="U40" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
@@ -22720,8 +23504,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M41" t="b">
-        <v>0</v>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -22753,8 +23539,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U41" t="b">
-        <v>1</v>
+      <c r="U41" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
@@ -22819,8 +23607,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M42" t="b">
-        <v>0</v>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -22852,8 +23642,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U42" t="b">
-        <v>1</v>
+      <c r="U42" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
@@ -22918,8 +23710,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M43" t="b">
-        <v>0</v>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -22951,8 +23745,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U43" t="b">
-        <v>1</v>
+      <c r="U43" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
@@ -23017,8 +23813,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M44" t="b">
-        <v>0</v>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -23050,8 +23848,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U44" t="b">
-        <v>1</v>
+      <c r="U44" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
@@ -23116,8 +23916,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M45" t="b">
-        <v>0</v>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -23149,8 +23951,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U45" t="b">
-        <v>0</v>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
@@ -23215,8 +24019,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M46" t="b">
-        <v>0</v>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -23248,8 +24054,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U46" t="b">
-        <v>0</v>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
@@ -23314,8 +24122,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M47" t="b">
-        <v>0</v>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -23347,8 +24157,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U47" t="b">
-        <v>0</v>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
@@ -23413,8 +24225,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M48" t="b">
-        <v>0</v>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -23446,8 +24260,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U48" t="b">
-        <v>0</v>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
@@ -23512,8 +24328,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M49" t="b">
-        <v>0</v>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -23545,8 +24363,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U49" t="b">
-        <v>0</v>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
@@ -23611,8 +24431,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M50" t="b">
-        <v>0</v>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -23644,8 +24466,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U50" t="b">
-        <v>0</v>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
@@ -23710,8 +24534,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M51" t="b">
-        <v>0</v>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -23743,8 +24569,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U51" t="b">
-        <v>0</v>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
@@ -23809,8 +24637,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M52" t="b">
-        <v>0</v>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -23842,8 +24672,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U52" t="b">
-        <v>0</v>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
@@ -23908,8 +24740,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M53" t="b">
-        <v>0</v>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -23941,8 +24775,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U53" t="b">
-        <v>0</v>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
@@ -24007,8 +24843,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M54" t="b">
-        <v>0</v>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -24040,8 +24878,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U54" t="b">
-        <v>0</v>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
@@ -24106,8 +24946,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M55" t="b">
-        <v>0</v>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -24139,8 +24981,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U55" t="b">
-        <v>0</v>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
@@ -24205,8 +25049,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M56" t="b">
-        <v>0</v>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -24238,8 +25084,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U56" t="b">
-        <v>0</v>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
@@ -24304,8 +25152,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M57" t="b">
-        <v>0</v>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O57" s="1" t="inlineStr">
         <is>
@@ -24337,8 +25187,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U57" t="b">
-        <v>0</v>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
@@ -24403,8 +25255,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M58" t="b">
-        <v>0</v>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O58" s="1" t="inlineStr">
         <is>
@@ -24436,8 +25290,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U58" t="b">
-        <v>0</v>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
@@ -24502,8 +25358,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M59" t="b">
-        <v>0</v>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O59" s="1" t="inlineStr">
         <is>
@@ -24535,8 +25393,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U59" t="b">
-        <v>0</v>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
@@ -24601,8 +25461,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M60" t="b">
-        <v>0</v>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O60" s="1" t="inlineStr">
         <is>
@@ -24634,8 +25496,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U60" t="b">
-        <v>0</v>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
@@ -24700,8 +25564,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M61" t="b">
-        <v>0</v>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -24733,8 +25599,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U61" t="b">
-        <v>1</v>
+      <c r="U61" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
@@ -24799,8 +25667,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M62" t="b">
-        <v>0</v>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -24832,8 +25702,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U62" t="b">
-        <v>1</v>
+      <c r="U62" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
@@ -24898,8 +25770,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M63" t="b">
-        <v>0</v>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -24931,8 +25805,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U63" t="b">
-        <v>1</v>
+      <c r="U63" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
@@ -24997,8 +25873,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M64" t="b">
-        <v>0</v>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -25030,8 +25908,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U64" t="b">
-        <v>1</v>
+      <c r="U64" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
@@ -25096,8 +25976,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M65" t="b">
-        <v>0</v>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -25129,8 +26011,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U65" t="b">
-        <v>0</v>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
@@ -25195,8 +26079,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M66" t="b">
-        <v>0</v>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -25228,8 +26114,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U66" t="b">
-        <v>0</v>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
@@ -25294,8 +26182,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M67" t="b">
-        <v>0</v>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -25327,8 +26217,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U67" t="b">
-        <v>1</v>
+      <c r="U67" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
@@ -25393,8 +26285,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M68" t="b">
-        <v>0</v>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -25426,8 +26320,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U68" t="b">
-        <v>1</v>
+      <c r="U68" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
@@ -25492,8 +26388,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M69" t="b">
-        <v>0</v>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -25525,8 +26423,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U69" t="b">
-        <v>1</v>
+      <c r="U69" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
@@ -25591,8 +26491,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M70" t="b">
-        <v>0</v>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -25624,8 +26526,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U70" t="b">
-        <v>0</v>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
@@ -25690,8 +26594,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M71" t="b">
-        <v>0</v>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -25723,8 +26629,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U71" t="b">
-        <v>0</v>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
@@ -25789,8 +26697,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M72" t="b">
-        <v>0</v>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -25822,8 +26732,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U72" t="b">
-        <v>0</v>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
@@ -25888,8 +26800,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M73" t="b">
-        <v>0</v>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -25921,8 +26835,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U73" t="b">
-        <v>0</v>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
@@ -25987,8 +26903,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M74" t="b">
-        <v>0</v>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -26020,8 +26938,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U74" t="b">
-        <v>0</v>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
@@ -26086,8 +27006,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M75" t="b">
-        <v>0</v>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -26119,8 +27041,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U75" t="b">
-        <v>0</v>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
@@ -26185,8 +27109,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M76" t="b">
-        <v>0</v>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -26218,8 +27144,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U76" t="b">
-        <v>0</v>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
@@ -26284,8 +27212,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M77" t="b">
-        <v>0</v>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -26317,8 +27247,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U77" t="b">
-        <v>0</v>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
@@ -26383,8 +27315,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M78" t="b">
-        <v>0</v>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -26416,8 +27350,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U78" t="b">
-        <v>0</v>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
@@ -26482,8 +27418,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M79" t="b">
-        <v>0</v>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -26515,8 +27453,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U79" t="b">
-        <v>0</v>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
@@ -26581,8 +27521,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M80" t="b">
-        <v>0</v>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -26614,8 +27556,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U80" t="b">
-        <v>0</v>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
@@ -26680,8 +27624,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M81" t="b">
-        <v>0</v>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -26713,8 +27659,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U81" t="b">
-        <v>0</v>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
@@ -26779,8 +27727,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M82" t="b">
-        <v>0</v>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -26812,8 +27762,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U82" t="b">
-        <v>0</v>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
@@ -26878,8 +27830,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M83" t="b">
-        <v>0</v>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -26911,8 +27865,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U83" t="b">
-        <v>0</v>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
@@ -26977,8 +27933,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M84" t="b">
-        <v>0</v>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -27010,8 +27968,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U84" t="b">
-        <v>0</v>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
@@ -27076,8 +28036,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M85" t="b">
-        <v>0</v>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -27109,8 +28071,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U85" t="b">
-        <v>0</v>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
@@ -27175,8 +28139,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M86" t="b">
-        <v>0</v>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -27208,8 +28174,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U86" t="b">
-        <v>0</v>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
@@ -27274,8 +28242,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M87" t="b">
-        <v>0</v>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -27307,8 +28277,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U87" t="b">
-        <v>0</v>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
@@ -27373,8 +28345,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M88" t="b">
-        <v>0</v>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -27406,8 +28380,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U88" t="b">
-        <v>0</v>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
@@ -27803,8 +28779,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" s="1" t="inlineStr">
         <is>
@@ -27836,8 +28814,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -27902,8 +28882,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -27935,8 +28917,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -28001,8 +28985,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -28034,8 +29020,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>1</v>
+      <c r="U4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -28100,8 +29088,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -28133,8 +29123,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -28199,8 +29191,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -28232,8 +29226,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -28298,8 +29294,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -28331,8 +29329,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -28397,8 +29397,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -28430,8 +29432,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -28496,8 +29500,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -28529,8 +29535,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -28595,8 +29603,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -28628,8 +29638,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>0</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -28694,8 +29706,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -28727,8 +29741,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>0</v>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -28793,8 +29809,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -28826,8 +29844,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>0</v>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -28892,8 +29912,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -28925,8 +29947,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>0</v>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -28991,8 +30015,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -29024,8 +30050,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>0</v>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -29090,8 +30118,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>0</v>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -29123,8 +30153,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>0</v>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -29189,8 +30221,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M16" t="b">
-        <v>0</v>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -29222,8 +30256,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U16" t="b">
-        <v>0</v>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -29288,8 +30324,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M17" t="b">
-        <v>0</v>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -29321,8 +30359,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U17" t="b">
-        <v>0</v>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -29387,8 +30427,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M18" t="b">
-        <v>0</v>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -29420,8 +30462,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U18" t="b">
-        <v>0</v>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -29486,8 +30530,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M19" t="b">
-        <v>0</v>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -29519,8 +30565,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U19" t="b">
-        <v>1</v>
+      <c r="U19" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -29585,8 +30633,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M20" t="b">
-        <v>0</v>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -29618,8 +30668,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U20" t="b">
-        <v>1</v>
+      <c r="U20" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -29684,8 +30736,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M21" t="b">
-        <v>0</v>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -29717,8 +30771,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U21" t="b">
-        <v>1</v>
+      <c r="U21" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -29783,8 +30839,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M22" t="b">
-        <v>0</v>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -29816,8 +30874,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U22" t="b">
-        <v>1</v>
+      <c r="U22" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -29882,8 +30942,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M23" t="b">
-        <v>0</v>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -29915,8 +30977,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U23" t="b">
-        <v>0</v>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -29981,8 +31045,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M24" t="b">
-        <v>0</v>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -30014,8 +31080,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U24" t="b">
-        <v>0</v>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -30283,8 +31351,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -30316,8 +31386,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -30382,8 +31454,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -30415,8 +31489,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>1</v>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -30481,8 +31557,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -30514,8 +31592,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -30580,8 +31660,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" s="1" t="inlineStr">
         <is>
@@ -30613,8 +31695,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -30679,8 +31763,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" s="1" t="inlineStr">
         <is>
@@ -30712,8 +31798,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -30778,8 +31866,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" s="1" t="inlineStr">
         <is>
@@ -30811,8 +31901,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -30877,8 +31969,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" s="1" t="inlineStr">
         <is>
@@ -30910,8 +32004,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -30976,8 +32072,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" s="1" t="inlineStr">
         <is>
@@ -31009,8 +32107,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -31075,8 +32175,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" s="1" t="inlineStr">
         <is>
@@ -31108,8 +32210,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>1</v>
+      <c r="U10" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -31174,8 +32278,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -31207,8 +32313,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>0</v>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -31273,8 +32381,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -31306,8 +32416,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>1</v>
+      <c r="U12" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -31551,8 +32663,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" s="1" t="inlineStr">
         <is>
@@ -31584,8 +32698,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -31650,8 +32766,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -31683,8 +32801,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>1</v>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -31749,8 +32869,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -31782,8 +32904,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>1</v>
+      <c r="U4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -31848,8 +32972,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -31881,8 +33007,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>1</v>
+      <c r="U5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -32112,8 +33240,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -32145,8 +33275,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -32370,8 +33502,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" s="1" t="inlineStr">
         <is>
@@ -32403,8 +33537,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -32469,8 +33605,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>1</v>
+      <c r="M3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N3" t="n">
         <v>5759</v>
@@ -32505,8 +33643,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>1</v>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -32571,8 +33711,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -32604,8 +33746,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>1</v>
+      <c r="U4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -32670,8 +33814,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -32703,8 +33849,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -32769,8 +33917,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -32802,8 +33952,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -32868,8 +34020,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -32901,8 +34055,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -32967,8 +34123,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -33000,8 +34158,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -33066,8 +34226,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -33099,8 +34261,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -33165,8 +34329,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -33198,8 +34364,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>0</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -33264,8 +34432,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -33297,8 +34467,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>0</v>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -33363,8 +34535,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -33396,8 +34570,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>0</v>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -33641,8 +34817,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -33674,8 +34852,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -33899,8 +35079,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -33932,8 +35114,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -33998,8 +35182,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -34031,8 +35217,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>1</v>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -34097,8 +35285,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -34130,8 +35320,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>1</v>
+      <c r="U4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -34196,8 +35388,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -34229,8 +35423,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>1</v>
+      <c r="U5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -34295,8 +35491,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -34328,8 +35526,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>1</v>
+      <c r="U6" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -34394,8 +35594,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -34427,8 +35629,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>1</v>
+      <c r="U7" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -34662,8 +35866,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -34695,8 +35901,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
